--- a/DSC 530 - Data Exploration and Analysis/Project/Data/ASD_Prevalence_Age_3-17yrs_by_State_Survey_2019-2020.xlsx
+++ b/DSC 530 - Data Exploration and Analysis/Project/Data/ASD_Prevalence_Age_3-17yrs_by_State_Survey_2019-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bellevueuniversity-my.sharepoint.com/personal/ptweatherford_my365_bellevue_edu/Documents/BU/DSC 530 - Data Exploration and Analysis/Patrick.Weatherford-DSC530/Project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bellevueuniversity-my.sharepoint.com/personal/ptweatherford_my365_bellevue_edu/Documents/Bellevue_University/DSC 530 - Data Exploration and Analysis/Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C2C80FAE-0DBD-462F-9588-8E415FE0A095}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FE14BC6C-CCDD-4486-8143-85F2E2E54227}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C2C80FAE-0DBD-462F-9588-8E415FE0A095}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5C8E9292-1D92-4175-8E22-036F45E37AFE}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{7A062143-0EEB-4F32-82E8-B40931E58607}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7A062143-0EEB-4F32-82E8-B40931E58607}"/>
   </bookViews>
   <sheets>
     <sheet name="PrevalenceData" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>URL:</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Delaware</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
   </si>
   <si>
     <t>Florida</t>
@@ -278,8 +275,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95232CE4-A0EC-40BA-9733-DE96FF279078}" name="Table1" displayName="Table1" ref="A1:C52" totalsRowShown="0">
-  <autoFilter ref="A1:C52" xr:uid="{A12CDAC2-B6EB-4900-8E53-2DADC5F9DCC1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95232CE4-A0EC-40BA-9733-DE96FF279078}" name="Table1" displayName="Table1" ref="A1:C51" totalsRowShown="0">
+  <autoFilter ref="A1:C51" xr:uid="{A12CDAC2-B6EB-4900-8E53-2DADC5F9DCC1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00B6FC5C-73DC-4173-B5BE-6FE847999A47}" name="State"/>
     <tableColumn id="2" xr3:uid="{9EB15892-2C65-47AC-8256-B8964A160A05}" name="Currently has condition %"/>
@@ -586,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B4FAF5-94EA-489C-A81C-6BE78A7E5BE1}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,10 +700,10 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="C10">
-        <v>97.5</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,10 +711,10 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>2.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C11">
-        <v>96.9</v>
+        <v>97.4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,10 +722,10 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>2.2999999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="C12">
-        <v>97.4</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,10 +733,10 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C13">
-        <v>98</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,10 +744,10 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>2.2999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="C14">
-        <v>97.7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -761,7 +758,7 @@
         <v>2.9</v>
       </c>
       <c r="C15">
-        <v>97</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -769,10 +766,10 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="C16">
-        <v>96.6</v>
+        <v>97.9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -780,10 +777,10 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="C17">
-        <v>97.9</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,10 +788,10 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>1.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C18">
-        <v>98.8</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -802,10 +799,10 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>2.2999999999999998</v>
+        <v>3.9</v>
       </c>
       <c r="C19">
-        <v>97.7</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -813,10 +810,10 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C20">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -824,10 +821,10 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>95.8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -835,10 +832,10 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="C22">
-        <v>97</v>
+        <v>95.6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -846,10 +843,10 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="C23">
-        <v>95.6</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -857,10 +854,10 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="C24">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -868,10 +865,10 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C25">
-        <v>97.2</v>
+        <v>97.6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -879,10 +876,10 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="C26">
-        <v>97.6</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,10 +887,10 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="C27">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,10 +898,10 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="C28">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -912,10 +909,10 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="C29">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -923,10 +920,10 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="C30">
-        <v>97.4</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,10 +931,10 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="C31">
-        <v>95.7</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -945,10 +942,10 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="C32">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -956,10 +953,10 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="C33">
-        <v>96.8</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -967,10 +964,10 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="C34">
-        <v>97.8</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,10 +975,10 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="C35">
-        <v>96.8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,10 +986,10 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>98</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,10 +997,10 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="C37">
-        <v>96.9</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,10 +1008,10 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="C38">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1022,10 +1019,10 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="C39">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1033,10 +1030,10 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="C40">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1044,10 +1041,10 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C41">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1055,10 +1052,10 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="C42">
-        <v>96.6</v>
+        <v>97.6</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1069,7 +1066,7 @@
         <v>2.4</v>
       </c>
       <c r="C43">
-        <v>97.6</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1077,10 +1074,10 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="C44">
-        <v>96.9</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,10 +1085,10 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="C45">
-        <v>96.3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1099,10 +1096,10 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="C46">
-        <v>98</v>
+        <v>97.6</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1110,10 +1107,10 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>97.6</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,10 +1118,10 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="C48">
-        <v>96.9</v>
+        <v>97.4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1132,7 +1129,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="C49">
         <v>97.4</v>
@@ -1143,10 +1140,10 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="C50">
-        <v>97.4</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1154,26 +1151,15 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B52">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B2:B51">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1195,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448ED027-BD45-46E5-8EF9-B889367FC30F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
